--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/15/seed5/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.4085</v>
+        <v>16.5154</v>
       </c>
     </row>
     <row r="4">
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.8192</v>
+        <v>-11.5925</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.63800000000001</v>
+        <v>16.608</v>
       </c>
     </row>
     <row r="15">
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.4375</v>
+        <v>16.52179999999999</v>
       </c>
     </row>
     <row r="27">
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.2211</v>
+        <v>-13.2457</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.67380000000001</v>
+        <v>16.7146</v>
       </c>
     </row>
     <row r="32">
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.6542</v>
+        <v>-13.6961</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.59670000000001</v>
+        <v>16.7298</v>
       </c>
     </row>
     <row r="36">
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.06870000000002</v>
+        <v>-13.35710000000002</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.72370000000001</v>
+        <v>16.77400000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.6394</v>
+        <v>-13.94729999999999</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.4361</v>
+        <v>16.5344</v>
       </c>
     </row>
     <row r="46">
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.31379999999999</v>
+        <v>-14.49799999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.1579</v>
+        <v>17.0662</v>
       </c>
     </row>
     <row r="53">
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.04470000000001</v>
+        <v>-13.5743</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.35749999999999</v>
+        <v>-13.4034</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.50989999999999</v>
+        <v>-12.35249999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.626</v>
+        <v>16.8087</v>
       </c>
     </row>
     <row r="58">
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.81460000000001</v>
+        <v>-10.67650000000001</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.89259999999999</v>
+        <v>-11.8492</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.89310000000001</v>
+        <v>-11.6981</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.6209</v>
+        <v>16.49209999999999</v>
       </c>
     </row>
     <row r="82">
@@ -1845,13 +1845,13 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.57610000000001</v>
+        <v>-14.0351</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.402</v>
+        <v>16.3771</v>
       </c>
     </row>
     <row r="84">
@@ -1896,7 +1896,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.69509999999999</v>
+        <v>-13.6632</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.29</v>
+        <v>-10.1111</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.8345</v>
+        <v>-10.77070000000001</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-13.89610000000001</v>
+        <v>-13.9787</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.4896</v>
+        <v>16.3603</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.7932</v>
+        <v>16.8973</v>
       </c>
     </row>
   </sheetData>
